--- a/Data/Ekologicheskie_pokazateli.xlsx
+++ b/Data/Ekologicheskie_pokazateli.xlsx
@@ -19,7 +19,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>Название района</t>
+  </si>
+  <si>
+    <t>Ленинский муниципальный район</t>
+  </si>
+  <si>
+    <t>Городские поселения ленинского муниципального района</t>
+  </si>
+  <si>
+    <t>Городское поселение Щелкино</t>
+  </si>
+  <si>
+    <t>Сельские поселения Ленинского муниципального района</t>
+  </si>
+  <si>
+    <t>Багеровское сельское поселение</t>
+  </si>
+  <si>
+    <t>Лениново сельское поселение</t>
+  </si>
+  <si>
+    <t>Батальненское сельское поселение</t>
+  </si>
+  <si>
+    <t>Белинское сельское поселение</t>
+  </si>
+  <si>
+    <t>Виноградненское сельское поселение</t>
+  </si>
+  <si>
+    <t>Войковское сельское поселение</t>
+  </si>
+  <si>
+    <t>Глазовское сельское поселение</t>
+  </si>
+  <si>
+    <t>Горностаевское сельское поселение</t>
+  </si>
+  <si>
+    <t>Ильичевское сельское поселение</t>
+  </si>
+  <si>
+    <t>Калиновское сельское поселение</t>
+  </si>
+  <si>
+    <t>Красногорское сельское поселение</t>
+  </si>
+  <si>
+    <t>Ленинское сельское поселение</t>
+  </si>
+  <si>
+    <t>Луговское сельское поселение</t>
+  </si>
+  <si>
+    <t>Марфовское сельское поселение</t>
+  </si>
+  <si>
+    <t>Марьевское сельское поселение</t>
+  </si>
+  <si>
+    <t>Мысовское сельское поселение</t>
+  </si>
+  <si>
+    <t>Новониколаевское сельское поселение</t>
+  </si>
+  <si>
+    <t>Октябрьское сельское поселение</t>
+  </si>
+  <si>
+    <t>Останинское сельское поселение</t>
+  </si>
+  <si>
+    <t>Приозеровское сельское поселение</t>
+  </si>
+  <si>
+    <t>Семисотское сельское поселение</t>
+  </si>
+  <si>
+    <t>Уваровское сельское поселение</t>
+  </si>
+  <si>
+    <t>Челядиновское сельское поселение</t>
+  </si>
+  <si>
+    <t>Чистопольское сельское поселение</t>
+  </si>
   <si>
     <t>Вывезено за год твердых коммунальных отходов (тыс. м3)</t>
   </si>
@@ -54,6 +141,9 @@
     <t>Углеводороды (тыс. тонн)</t>
   </si>
   <si>
+    <t>Летучие органические соединения (ЛОС)</t>
+  </si>
+  <si>
     <t>Прочие газообразные и жидкие вещества</t>
   </si>
   <si>
@@ -69,6 +159,15 @@
     <t>Удельная величина потребления природного газа в многоквартирных домах на одного проживающего (кубический метр)</t>
   </si>
   <si>
+    <t>Заветненское сельское поселение</t>
+  </si>
+  <si>
+    <t>Кировское сельское поселение</t>
+  </si>
+  <si>
+    <t>Городской округ Керчь</t>
+  </si>
+  <si>
     <t>185.113</t>
   </si>
   <si>
@@ -76,96 +175,6 @@
   </si>
   <si>
     <t>Уловлено и обезврежено загрязняющих веществ в процентах от общего количества загрязняющих веществ, отходящих от стационарных источников</t>
-  </si>
-  <si>
-    <t>г. Щелкино</t>
-  </si>
-  <si>
-    <t>г. Керчь</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>пгт. Ленино</t>
-  </si>
-  <si>
-    <t>Летучие органические сийдинения (ЛОС)</t>
-  </si>
-  <si>
-    <t>Багеровский сельский совет</t>
-  </si>
-  <si>
-    <t>Батальненский сельский совет</t>
-  </si>
-  <si>
-    <t>Белинский сельский совет</t>
-  </si>
-  <si>
-    <t>Виноградненский сельский совет</t>
-  </si>
-  <si>
-    <t>Войковский сельский совет</t>
-  </si>
-  <si>
-    <t>Глазовский сельский совет</t>
-  </si>
-  <si>
-    <t>Горностаевский сельский совет</t>
-  </si>
-  <si>
-    <t>Заветненский сельский совет</t>
-  </si>
-  <si>
-    <t>Ильичевский сельский совет</t>
-  </si>
-  <si>
-    <t>Калиновский сельский совет</t>
-  </si>
-  <si>
-    <t>Кировский сельский совет</t>
-  </si>
-  <si>
-    <t>Красногорский сельский совет</t>
-  </si>
-  <si>
-    <t>Ленинский сельский совет</t>
-  </si>
-  <si>
-    <t>Марфовский сельский совет</t>
-  </si>
-  <si>
-    <t>Марьевский сельский совет</t>
-  </si>
-  <si>
-    <t>Новониколаевский сельский совет</t>
-  </si>
-  <si>
-    <t>Октябрьский сельский совет</t>
-  </si>
-  <si>
-    <t>Останинский сельский совет</t>
-  </si>
-  <si>
-    <t>Семисотский сельский совет</t>
-  </si>
-  <si>
-    <t>Уваровский сельский совет</t>
-  </si>
-  <si>
-    <t>Челядиновский сельский совет</t>
-  </si>
-  <si>
-    <t>Чистопольский сельский совет</t>
-  </si>
-  <si>
-    <t>Приозерненский сельский совет</t>
-  </si>
-  <si>
-    <t>Мысовской сельский совет</t>
-  </si>
-  <si>
-    <t>Луговской сельский совет</t>
   </si>
 </sst>
 </file>
@@ -226,10 +235,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,64 +552,64 @@
   <sheetData>
     <row r="1" spans="1:31" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -616,12 +625,12 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>72</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>18.100000000000001</v>
       </c>
       <c r="D2">
@@ -670,350 +679,375 @@
         <v>1760.9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.46</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.32</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.37</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.59</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.46</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.7</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.32</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.7</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.37</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.59</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.61</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.77</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.32</v>
+        <v>46</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.31</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.61</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.64</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.77</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="6">
+        <v>47</v>
+      </c>
+      <c r="B17" s="7">
         <v>1.3</v>
       </c>
-      <c r="C17" s="6">
-        <v>0.3</v>
+      <c r="C17" s="7">
+        <v>0.32</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.31</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.23</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.64</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7">
         <v>1.3</v>
       </c>
-      <c r="C20" s="6">
-        <v>0.32</v>
+      <c r="C20" s="7">
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.4</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.47</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.23</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.32</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1.06</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.72</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.47</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.27</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.46</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.06</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.71</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.72</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="7">
         <v>334.1</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C32" s="7">
         <v>83.5</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E32" s="6">
         <v>538963</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F32" s="6">
         <v>29</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G32" s="6">
         <v>1.5049999999999999</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H32" s="6">
         <v>0.21099999999999999</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I32" s="6">
         <v>1.246</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J32" s="6">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K32" s="6">
         <v>0.34699999999999998</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L32" s="6">
         <v>0.48399999999999999</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M32" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="7">
+      <c r="N32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q32" s="6">
         <v>2072.64</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R32" s="6">
         <v>266</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S32" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T32" s="6">
         <v>3.2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
